--- a/results_curr/DT/125Hz_2classes/res_hyperopt.xlsx
+++ b/results_curr/DT/125Hz_2classes/res_hyperopt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\ForGit_curr\results_curr\DT\125Hz_2classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787395B-0853-475A-A1D5-05BA5470185B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42501EDE-39EC-46F9-AC53-E9F75B969D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,130 +53,130 @@
     <t>R1</t>
   </si>
   <si>
-    <t>{'max_depth': 86, 'max_features': 0.6782937752937519, 'min_samples_split': 0.3749017522693157, 'min_weight_fraction_leaf': 0.1715967541012441}</t>
-  </si>
-  <si>
-    <t>{'entropy_10_25': 1.0}</t>
+    <t>{'max_depth': 29, 'max_features': 0.7129952751098027, 'min_samples_split': 0.5632134047933419, 'min_weight_fraction_leaf': 0.17517485781724051}</t>
+  </si>
+  <si>
+    <t>{'mean_10_25': 0.0, 'entropy_10_25': 0.0}</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>{'max_depth': 54, 'max_features': 0.4963927637700343, 'min_samples_split': 0.081601710257132, 'min_weight_fraction_leaf': 0.03198747896576526}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 1.0}</t>
+    <t>{'max_depth': 33, 'max_features': 0.3901603093884674, 'min_samples_split': 0.7748906186348576, 'min_weight_fraction_leaf': 0.04948128977076527}</t>
+  </si>
+  <si>
+    <t>{'max_50_100': 0.0}</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>{'max_depth': 51, 'max_features': 0.6300628708159173, 'min_samples_split': 0.11989114686752697, 'min_weight_fraction_leaf': 0.28854109836476427}</t>
-  </si>
-  <si>
-    <t>{'var_10_50': 1.0}</t>
+    <t>{'max_depth': 34, 'max_features': 0.5421115307197466, 'min_samples_split': 0.225213807026925, 'min_weight_fraction_leaf': 0.3194414576041015}</t>
+  </si>
+  <si>
+    <t>{'var_10_50': 0.0}</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>{'max_depth': 73, 'max_features': 0.48203202992153743, 'min_samples_split': 0.24443530561855362, 'min_weight_fraction_leaf': 0.16101995678993325}</t>
-  </si>
-  <si>
-    <t>{'max_50_100': 0.545, 'kurt_75_125': 0.455}</t>
+    <t>{'max_depth': 31, 'max_features': 0.34898907427308473, 'min_samples_split': 0.4807367483006217, 'min_weight_fraction_leaf': 0.21145963038832782}</t>
+  </si>
+  <si>
+    <t>{'entropy_10_50': 0.0, 'min_10_50': 0.0, 'mean_25_75': 0.0, 'skew_25_75': 0.0, 'kurt_75_125': 0.0, 'std_class_75_125': 0.0}</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>{'max_depth': 90, 'max_features': 0.6189879863841917, 'min_samples_split': 0.560781605218604, 'min_weight_fraction_leaf': 0.2807425461616078}</t>
-  </si>
-  <si>
-    <t>{'min_25_75': 0.358, 'var_50_100': 0.248, 'min_10_50': 0.24, 'coef_var_10_25': 0.127, 'min_50_100': 0.027}</t>
+    <t>{'max_depth': 35, 'max_features': 0.6171634095954319, 'min_samples_split': 0.2869167361377571, 'min_weight_fraction_leaf': 0.26208380553620436}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 1.0, 'min_10_25': 0.0, 'min_10_50': 0.0, 'std_class_25_75': 0.0, 'var_25_75': 0.0}</t>
   </si>
   <si>
     <t>T3</t>
   </si>
   <si>
-    <t>{'max_depth': 78, 'max_features': 0.3823352562743028, 'min_samples_split': 0.32683726440315314, 'min_weight_fraction_leaf': 0.13055371229479423}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.649, 'kurt_75_125': 0.351}</t>
+    <t>{'max_depth': 58, 'max_features': 0.5658710351150772, 'min_samples_split': 0.4212887034659035, 'min_weight_fraction_leaf': 0.31238973330181213}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.673, 'var_10_50': 0.0}</t>
   </si>
   <si>
     <t>R1_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 94, 'max_features': 0.7025544606877522, 'min_samples_split': 0.010867597979090962, 'min_weight_fraction_leaf': 0.14136919225705957}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.377, 'min_25_75': 0.328, 'var_75_125': 0.195, 'max_75_125': 0.041, 'skew_25_75': 0.034, 'kurt_10_50': 0.025}</t>
+    <t>{'max_depth': 25, 'max_features': 0.6892469800455937, 'min_samples_split': 0.5811377321644753, 'min_weight_fraction_leaf': 0.10392076197509176}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.335, 'coef_var_10_25': 0.0, 'max_50_100': 0.0}</t>
   </si>
   <si>
     <t>R1_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 21, 'max_features': 0.7044743222155947, 'min_samples_split': 0.20418074074656087, 'min_weight_fraction_leaf': 0.14789078096264663}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 0.47, 'max_50_100': 0.356, 'var_10_25': 0.174}</t>
+    <t>{'max_depth': 40, 'max_features': 0.8336436465762526, 'min_samples_split': 0.046369523686987664, 'min_weight_fraction_leaf': 0.17208884341863734}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.847, 'mean_10_25': 0.0, 'max_50_100': 0.0}</t>
   </si>
   <si>
     <t>R1_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 58, 'max_features': 0.46969139348254674, 'min_samples_split': 0.6850745535545261, 'min_weight_fraction_leaf': 0.27579214461563684}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 0.471, 'mean_10_25': 0.132, 'coef_var_10_50': 0.125, 'min_10_50': 0.113, 'skew_25_75': 0.06, 'std_class_25_75': 0.043, 'score_at_perc_10_25': 0.041, 'percScore_10_25': 0.012, 'score_at_perc_75_125': 0.002}</t>
+    <t>{'max_depth': 73, 'max_features': 0.46409119319400444, 'min_samples_split': 0.6142989590223645, 'min_weight_fraction_leaf': 0.26629095538407893}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.0}</t>
   </si>
   <si>
     <t>R2_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 77, 'max_features': 0.46811970369874667, 'min_samples_split': 0.40043238667942666, 'min_weight_fraction_leaf': 0.09288654704738819}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 0.487, 'mean_10_25': 0.106, 'mean_10_50': 0.091, 'var_10_25': 0.089, 'var_10_50': 0.06, 'min_10_25': 0.046, 'coef_kstatvar_75_125': 0.037, 'entropy_25_75': 0.028, 'min_75_125': 0.025, 'max_50_100': 0.014, 'max_10_50': 0.007, 'var_25_75': 0.007, 'skew_50_100': 0.003}</t>
+    <t>{'max_depth': 99, 'max_features': 0.4668955049515147, 'min_samples_split': 0.5036403774554442, 'min_weight_fraction_leaf': 0.094410276171919}</t>
   </si>
   <si>
     <t>R2_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 37, 'max_features': 0.6547110160006135, 'min_samples_split': 0.5243936009479858, 'min_weight_fraction_leaf': 0.07449803670830113}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 0.435, 'std_class_10_25': 0.329, 'var_10_50': 0.197, 'min_75_125': 0.034, 'mean_50_100': 0.004, 'std_class_50_100': 0.001}</t>
+    <t>{'max_depth': 68, 'max_features': 0.6014481240702023, 'min_samples_split': 0.5501213306683073, 'min_weight_fraction_leaf': 0.0951068661911591}</t>
+  </si>
+  <si>
+    <t>{'mean_25_75': 0.0}</t>
   </si>
   <si>
     <t>R2_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 42, 'max_features': 0.5089817030113786, 'min_samples_split': 0.1613779750265667, 'min_weight_fraction_leaf': 0.006317182149616352}</t>
+    <t>{'max_depth': 64, 'max_features': 0.5138105128845681, 'min_samples_split': 0.08531518865479162, 'min_weight_fraction_leaf': 0.015613775132007679}</t>
+  </si>
+  <si>
+    <t>{'score_at_perc_50_100': 0.0}</t>
   </si>
   <si>
     <t>R3_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 72, 'max_features': 0.32612423469241597, 'min_samples_split': 0.20906433756831122, 'min_weight_fraction_leaf': 0.09976413583327898}</t>
-  </si>
-  <si>
-    <t>{'max_50_100': 0.526, 'kurt_75_125': 0.474}</t>
+    <t>{'max_depth': 10, 'max_features': 0.4092448509580732, 'min_samples_split': 0.015149452600972243, 'min_weight_fraction_leaf': 0.07031447025447751}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.528, 'mean_25_75': 0.161, 'var_10_25': 0.16, 'mean_10_25': 0.087, 'std_class_10_25': 0.0, 'mean_10_50': 0.0, 'max_10_50': 0.0, 'skew_10_50': 0.0, 'std_class_25_75': 0.0, 'max_50_100': 0.0, 'var_50_100': 0.0, 'kurt_75_125': 0.0, 'std_class_75_125': 0.0}</t>
   </si>
   <si>
     <t>R3_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 62, 'max_features': 0.8942880482764629, 'min_samples_split': 0.1121121818785563, 'min_weight_fraction_leaf': 0.03226632550608638}</t>
-  </si>
-  <si>
-    <t>{'max_50_100': 0.525, 'max_75_125': 0.475}</t>
+    <t>{'max_depth': 23, 'max_features': 0.08527127515629511, 'min_samples_split': 0.035696648703729884, 'min_weight_fraction_leaf': 0.0055872810456138455}</t>
   </si>
   <si>
     <t>R3_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 8, 'max_features': 0.48427374803760365, 'min_samples_split': 0.13734867279680466, 'min_weight_fraction_leaf': 0.22258069772559236}</t>
+    <t>{'max_depth': 68, 'max_features': 0.30110384025510606, 'min_samples_split': 0.12486226710485655, 'min_weight_fraction_leaf': 0.06337632599968862}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.234}</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -240,7 +240,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+      <selection activeCell="D18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,10 +596,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="D3">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D4">
         <v>0.73</v>
@@ -639,7 +639,7 @@
         <v>0.8</v>
       </c>
       <c r="D5">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -676,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D7">
         <v>0.8</v>
@@ -696,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="D8">
         <v>0.98</v>
@@ -716,7 +716,7 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D9">
         <v>0.9</v>
@@ -736,7 +736,7 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="D10">
         <v>0.97</v>
@@ -765,7 +765,7 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>0.78</v>
@@ -782,10 +782,10 @@
         <v>0.92</v>
       </c>
       <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -793,19 +793,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="D13">
         <v>0.78</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -816,10 +816,10 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="D14">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -836,16 +836,16 @@
         <v>43</v>
       </c>
       <c r="C15">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="D15">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,29 +853,29 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0.86</v>
+      </c>
+      <c r="D16">
+        <v>0.9</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="C16">
-        <v>0.78</v>
-      </c>
-      <c r="D16">
-        <v>0.85</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <f>AVERAGE(C2:C16)</f>
-        <v>0.80733333333333346</v>
+        <v>0.81</v>
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D16)</f>
-        <v>0.83866666666666667</v>
+        <v>0.84399999999999986</v>
       </c>
     </row>
   </sheetData>
